--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Postudalo 12 aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F442A4-F2BD-43C1-9AE9-1D4820C33155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC44608-2CEC-47F4-B4CF-840242F75316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>paso</t>
   </si>
@@ -83,9 +83,6 @@
     <t>{'x1':-2.29, 'y1':0, 'x2':0, 'y2':1}</t>
   </si>
   <si>
-    <t>{'x1':0, 'y1':0, 'x2':0, 'y2':1}</t>
-  </si>
-  <si>
     <t>{'x1':2.29, 'y1':0, 'x2':0, 'y2':1}</t>
   </si>
   <si>
@@ -101,52 +98,103 @@
     <t>Hipótesis</t>
   </si>
   <si>
-    <t>Punto C fuera de la recta AB</t>
-  </si>
-  <si>
-    <t>Tomar punto D en el lado opuesto de AB</t>
-  </si>
-  <si>
-    <t>Definición 1</t>
-  </si>
-  <si>
-    <t>Trazar circunferencia con centro C y radio CD</t>
-  </si>
-  <si>
     <t>Postulado 3</t>
   </si>
   <si>
-    <t>Trazar segmento CE</t>
-  </si>
-  <si>
     <t>Postulado 1</t>
   </si>
   <si>
-    <t>Trazar segmento CG</t>
-  </si>
-  <si>
-    <t>Trazar segmento CF</t>
-  </si>
-  <si>
-    <t>AB es perpendicular a CG</t>
-  </si>
-  <si>
     <t>Definición 10</t>
   </si>
   <si>
-    <t>AB es una recta dada (Punto A)</t>
-  </si>
-  <si>
-    <t>AB es una recta dada (Punto B)</t>
-  </si>
-  <si>
-    <t>AB es una recta dada (Segmento)</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
     <t>Proposición I.10</t>
+  </si>
+  <si>
+    <t>Tomar un punto $C$ fuera de la recta $\overline{AB}$</t>
+  </si>
+  <si>
+    <t>Tomar punto $D$ en el lado opuesto de $\overline{AB}$</t>
+  </si>
+  <si>
+    <t>Trazar circunferencia con centro $C$ y radio $\overline{CD}$</t>
+  </si>
+  <si>
+    <t>Trazar segmento $\overline{CE}$</t>
+  </si>
+  <si>
+    <t>Tomar un punto donde $E$ donde se interseca el circulo con la recta</t>
+  </si>
+  <si>
+    <t>{'x':-2.29,'y':0,'nombre':'E'}</t>
+  </si>
+  <si>
+    <t>Tomar un punto donde $F$ donde se interseca el circulo con la recta</t>
+  </si>
+  <si>
+    <t>{'x':2.29,'y':0,'nombre':'F'}</t>
+  </si>
+  <si>
+    <t>Trazar segmento $\overline{CF}$</t>
+  </si>
+  <si>
+    <t>Trazar segmento $\overline{EF}$</t>
+  </si>
+  <si>
+    <t>{'x1':-2.29, 'y1':0, 'x2':2.29, 'y2':0}</t>
+  </si>
+  <si>
+    <t>Bisecar $\overline{EF}$ y nombrar $G$</t>
+  </si>
+  <si>
+    <t>{'x':0,'y':0,'nombre':'G'}</t>
+  </si>
+  <si>
+    <t>Trazar segmento $\overline{CG}$</t>
+  </si>
+  <si>
+    <t>Trazar el segmento $\overline{EG}$</t>
+  </si>
+  <si>
+    <t>{'x1':-2.29, 'y1':0, 'x2':0, 'y2':0}</t>
+  </si>
+  <si>
+    <t>Trazar el segmento $\overline{GF}$</t>
+  </si>
+  <si>
+    <t>{'x1':2.29, 'y1':0, 'x2':0, 'y2':0}</t>
+  </si>
+  <si>
+    <t>$\overline{EG} = \overline{GF}$</t>
+  </si>
+  <si>
+    <t>$\overline{CE} = \overline{CF}$</t>
+  </si>
+  <si>
+    <t>Definición 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por los pasos (16) y (17) decimos que $\triangle EGC = \triangle FGC$ </t>
+  </si>
+  <si>
+    <t>Proposición I.8</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>{'x1':0, 'y1':1, 'x2':0, 'y2':0}</t>
+  </si>
+  <si>
+    <t>Como $\overline{GC}$ esta sobre $\overline{AB}$ y sus ángulos adyacentes son iguales $\overline{GC}$ es perpendicular a $\overline{AB}$</t>
+  </si>
+  <si>
+    <t>Tomar un punto $A$</t>
+  </si>
+  <si>
+    <t>Tomar un punto $B$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trazar segmento infinito $\overline{AB}$ </t>
   </si>
 </sst>
 </file>
@@ -182,8 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,16 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209630F0-6D4A-4468-B828-607EAE159F84}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -552,11 +603,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -569,11 +620,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -586,11 +637,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -603,11 +654,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -620,11 +671,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -637,11 +688,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -650,100 +701,224 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Postudalo 12 aplicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Proposicion 12 aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC44608-2CEC-47F4-B4CF-840242F75316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E254030C-4309-4690-A488-62592CE916F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -122,15 +122,9 @@
     <t>Trazar segmento $\overline{CE}$</t>
   </si>
   <si>
-    <t>Tomar un punto donde $E$ donde se interseca el circulo con la recta</t>
-  </si>
-  <si>
     <t>{'x':-2.29,'y':0,'nombre':'E'}</t>
   </si>
   <si>
-    <t>Tomar un punto donde $F$ donde se interseca el circulo con la recta</t>
-  </si>
-  <si>
     <t>{'x':2.29,'y':0,'nombre':'F'}</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>Definición 15</t>
   </si>
   <si>
-    <t xml:space="preserve">Por los pasos (16) y (17) decimos que $\triangle EGC = \triangle FGC$ </t>
-  </si>
-  <si>
     <t>Proposición I.8</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>{'x1':0, 'y1':1, 'x2':0, 'y2':0}</t>
   </si>
   <si>
-    <t>Como $\overline{GC}$ esta sobre $\overline{AB}$ y sus ángulos adyacentes son iguales $\overline{GC}$ es perpendicular a $\overline{AB}$</t>
-  </si>
-  <si>
     <t>Tomar un punto $A$</t>
   </si>
   <si>
@@ -195,6 +183,18 @@
   </si>
   <si>
     <t xml:space="preserve">Trazar segmento infinito $\overline{AB}$ </t>
+  </si>
+  <si>
+    <t>Tomar un punto donde $E$ es donde se interseca la circunferencia con la recta.</t>
+  </si>
+  <si>
+    <t>Tomar un punto donde $F$ es donde se interseca la circunferencia con la recta.</t>
+  </si>
+  <si>
+    <t>Como $\overline{GC}$ está sobre $\overline{AB}$ y sus ángulos adyacentes son iguales $\overline{GC}$ es perpendicular a $\overline{AB}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por los pasos (16) y (17) decimos que $\angle EGC = \angle FGC$ </t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209630F0-6D4A-4468-B828-607EAE159F84}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -675,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -706,16 +706,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -723,16 +723,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,16 +808,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -834,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -870,21 +870,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
